--- a/sources/Vision économique projet WEB.xlsx
+++ b/sources/Vision économique projet WEB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cesi Exia\A2\BLOC WEB\Projet Web\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chara\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C96C73-A406-405F-B389-609184101C1C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F79987-DA8C-412E-8858-459DA66AD172}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Liste matériel</t>
   </si>
@@ -78,16 +79,19 @@
   </si>
   <si>
     <t>Salaire Honoraire</t>
+  </si>
+  <si>
+    <t>Nom de domaine</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ [$€-1]"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -127,11 +131,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -159,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -186,7 +185,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -198,26 +196,114 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -253,7 +339,8 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ [$€-1]"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -271,7 +358,8 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ [$€-1]"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -289,11 +377,11 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -307,84 +395,15 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ [$€-1]"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ [$€-1]"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{7213A6F1-A307-4E0C-8665-EE2FE186D759}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -397,14 +416,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ACD9F1FD-57D5-4BE7-857E-3F1058354B94}" name="Tableau3" displayName="Tableau3" ref="A2:E5" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A2:E5" xr:uid="{905081AC-B265-4511-AD55-E62AF70A18BE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ACD9F1FD-57D5-4BE7-857E-3F1058354B94}" name="Tableau3" displayName="Tableau3" ref="A2:E6" totalsRowShown="0" headerRowDxfId="10">
+  <autoFilter ref="A2:E6" xr:uid="{905081AC-B265-4511-AD55-E62AF70A18BE}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{BB5FC9E6-3AC7-4DAF-ACD2-CA12ABD97D9F}" name="Liste matériel"/>
-    <tableColumn id="2" xr3:uid="{851EA1B2-F2F1-4C55-98AC-2E08464E9FE6}" name="Quantité" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{851EA1B2-F2F1-4C55-98AC-2E08464E9FE6}" name="Quantité" dataDxfId="9"/>
     <tableColumn id="3" xr3:uid="{4201D9C1-8A26-4D2A-9A79-831A76F265D3}" name="Description"/>
-    <tableColumn id="4" xr3:uid="{30F92537-21A5-46F9-A25E-951EC225E3B8}" name="Prix Unitaire HT" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{57BE87C5-0563-49D0-B3A4-3DEF4A86032F}" name="Prix Totale HT" dataDxfId="5">
+    <tableColumn id="4" xr3:uid="{30F92537-21A5-46F9-A25E-951EC225E3B8}" name="Prix Unitaire HT" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{57BE87C5-0563-49D0-B3A4-3DEF4A86032F}" name="Prix Totale HT" dataDxfId="7">
       <calculatedColumnFormula>D3*B3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -413,13 +432,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{17B19166-9881-400E-BAD8-315C8EAC3F4F}" name="Tableau4" displayName="Tableau4" ref="A8:D9" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{17B19166-9881-400E-BAD8-315C8EAC3F4F}" name="Tableau4" displayName="Tableau4" ref="A8:D9" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="A8:D9" xr:uid="{F7ECCFBA-0047-4CD6-AA64-454856BDEEBC}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{77B2108F-B1EB-401A-A66F-030A9D6D626C}" name="Service" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{B166B2C6-9BF6-4163-97CE-7DF1B62E57FA}" name="Quantité" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{749FDA96-7C65-43DF-89C3-EC006F8AB4EE}" name="Description" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{3550CE8C-6B05-4E80-AB25-DC7CC2D9628F}" name="Salaire Honoraire" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{77B2108F-B1EB-401A-A66F-030A9D6D626C}" name="Service" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{B166B2C6-9BF6-4163-97CE-7DF1B62E57FA}" name="Quantité" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{749FDA96-7C65-43DF-89C3-EC006F8AB4EE}" name="Description" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{3550CE8C-6B05-4E80-AB25-DC7CC2D9628F}" name="Salaire Honoraire" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -728,20 +747,19 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="41.33203125" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1"/>
+    <col min="1" max="1" width="43.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="41.28515625" customWidth="1"/>
+    <col min="4" max="5" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="1"/>
@@ -749,7 +767,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -766,25 +784,25 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="4">
         <v>2</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="5">
         <v>859.95</v>
       </c>
       <c r="E3" s="6">
-        <f t="shared" ref="E3:E4" si="0">D3*B3</f>
+        <f t="shared" ref="E3:E5" si="0">D3*B3</f>
         <v>1719.9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
@@ -802,47 +820,62 @@
         <v>62.65</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-      <c r="D5" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="10">
-        <f>(E3+E4)*1.2</f>
-        <v>2139.06</v>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
+        <v>15</v>
+      </c>
+      <c r="E5" s="6">
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="F5" s="9"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+      <c r="D6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="6">
+        <f>(E3+E4+E5)*1.2</f>
+        <v>2157.06</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="11">
         <v>1</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>13</v>
       </c>
     </row>
